--- a/datas/server/Localizations.xlsx
+++ b/datas/server/Localizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="21600" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="5320" yWindow="2700" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="alliance" sheetId="22" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -200,6 +200,34 @@
   </si>
   <si>
     <t>这是英文:您已被%s联盟踢出</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>忠诚值奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:您已被%s联盟踢出</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:忠诚值奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>giveLoyaltyToAllianceMemberTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>giveLoyaltyToAllianceMemberContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s联盟向你发放了%d点忠诚值奖励，请再接再厉！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:%s联盟向你发放了%d点忠诚值奖励，请再接再厉！</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -357,7 +385,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="124">
+  <cellStyleXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -372,6 +400,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -502,7 +546,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="124">
+  <cellStyles count="140">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -567,6 +611,14 @@
     <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -624,6 +676,14 @@
     <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1073,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1332,7 +1392,29 @@
         <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/datas/server/Localizations.xlsx
+++ b/datas/server/Localizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="2700" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="10200" yWindow="3160" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="alliance" sheetId="22" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -228,6 +228,30 @@
   </si>
   <si>
     <t>这是英文:%s联盟向你发放了%d点忠诚值奖励，请再接再厉！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于您在联盟战中击杀数第一,系统奖励您%d金龙币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceFightKillFirstRewardContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceFightKillFirstRewardTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟战最高击杀奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:联盟战最高击杀奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:由于您在联盟战中击杀数第一,系统奖励您%d金龙币</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -385,7 +409,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="140">
+  <cellStyleXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -400,6 +424,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -546,7 +576,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="140">
+  <cellStyles count="146">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -619,6 +649,9 @@
     <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="144" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -684,6 +717,9 @@
     <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1133,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1415,6 +1451,28 @@
       </c>
       <c r="C21" s="1" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/datas/server/Localizations.xlsx
+++ b/datas/server/Localizations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="3160" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="820" yWindow="120" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="alliance" sheetId="22" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -98,108 +98,81 @@
     <t>AllianceKickMemberOffContent</t>
   </si>
   <si>
+    <t>加入联盟邀请被拒绝</t>
+  </si>
+  <si>
+    <t>加入联盟邀请被接受</t>
+  </si>
+  <si>
+    <t>这是英文:联盟申请审核通过</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:加入联盟邀请被拒绝</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:加入联盟邀请被接受</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:忠诚值奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>giveLoyaltyToAllianceMemberTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>giveLoyaltyToAllianceMemberContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:%s联盟向你发放了%d点忠诚值奖励，请再接再厉！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceFightKillFirstRewardContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceFightKillFirstRewardTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟战最高击杀奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:联盟战最高击杀奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>联盟申请被拒绝</t>
-  </si>
-  <si>
-    <t>亲爱的,您对 %s 联盟的申请被无情的拒绝了</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>联盟申请审核通过</t>
-  </si>
-  <si>
-    <t>恭喜,您对 %s 联盟的申请审核通过了</t>
-  </si>
-  <si>
-    <t>加入联盟邀请被拒绝</t>
-  </si>
-  <si>
-    <t>亲爱的,%s 拒绝了您对他加入联盟的邀请</t>
-  </si>
-  <si>
-    <t>加入联盟邀请被接受</t>
-  </si>
-  <si>
-    <t>恭喜,%s 接受了您对他加入联盟的邀请</t>
-  </si>
-  <si>
-    <t>%s&lt;%s&gt;帮您抵御了一次突袭</t>
-  </si>
-  <si>
-    <t>%s&lt;%s&gt;帮您抵御了一次进攻</t>
-  </si>
-  <si>
-    <t>我方联盟刚刚发起了一次联盟战</t>
-  </si>
-  <si>
-    <t>%s 联盟对我方联盟发起了一次联盟战</t>
-  </si>
-  <si>
-    <t>您在联盟的职位被调整</t>
-  </si>
-  <si>
-    <t>您的职位由%s调整为%s</t>
-  </si>
-  <si>
-    <t>您已被%s联盟踢出</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>这是英文:联盟申请被拒绝</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>这是英文:亲爱的,您对 %s 联盟的申请被无情的拒绝了</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:联盟申请审核通过</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:恭喜,您对 %s 联盟的申请审核通过了</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:加入联盟邀请被拒绝</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:亲爱的,%s 拒绝了您对他加入联盟的邀请</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:加入联盟邀请被接受</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:恭喜,%s 接受了您对他加入联盟的邀请</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:%s&lt;%s&gt;帮您抵御了一次突袭</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:%s&lt;%s&gt;帮您抵御了一次进攻</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:我方联盟刚刚发起了一次联盟战</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:%s 联盟对我方联盟发起了一次联盟战</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:您在联盟的职位被调整</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:您的职位由%s调整为%s</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:您已被%s联盟踢出</t>
+    <t>我方联盟刚刚发起了一场联盟会战，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:我方联盟刚刚发起了一场联盟会战，，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s 联盟向我方发起了一场联盟会战，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:%s 联盟对我方发起了一场联盟会战，请做好战斗准备！</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -207,51 +180,161 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>这是英文:您已被%s联盟踢出</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:忠诚值奖励</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>giveLoyaltyToAllianceMemberTitle</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>giveLoyaltyToAllianceMemberContent</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>%s联盟向你发放了%d点忠诚值奖励，请再接再厉！</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>这是英文:%s联盟向你发放了%d点忠诚值奖励，请再接再厉！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于您在联盟战中击杀数第一,系统奖励您%d金龙币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllianceFightKillFirstRewardContent</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllianceFightKillFirstRewardTitle</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>联盟战最高击杀奖励</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:联盟战最高击杀奖励</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:由于您在联盟战中击杀数第一,系统奖励您%d金龙币</t>
+    <t>主人,你对 %s 联盟的申请被无情的拒绝了。</t>
+  </si>
+  <si>
+    <t>这是英文:主人,你对 %s 联盟的申请被无情的拒绝了。</t>
+  </si>
+  <si>
+    <t>恭喜,你对 %s 联盟的申请审核通过了。</t>
+  </si>
+  <si>
+    <t>这是英文:恭喜,你对 %s 联盟的申请审核通过了。</t>
+  </si>
+  <si>
+    <t>恭喜,%s 接受了你对他加入联盟的邀请。</t>
+  </si>
+  <si>
+    <t>这是英文:恭喜,%s 接受了你对他加入联盟的邀请。</t>
+  </si>
+  <si>
+    <t>[%s]%s帮你抵御了一次突袭</t>
+  </si>
+  <si>
+    <t>这是英文[%s]%s帮你抵御了一次突袭</t>
+  </si>
+  <si>
+    <t>[%s]%s帮你抵御了一次突袭。</t>
+  </si>
+  <si>
+    <t>这是英文:[%s]%s帮你抵御了一次突袭。</t>
+  </si>
+  <si>
+    <t>[%s]%s帮你抵御了一次进攻</t>
+  </si>
+  <si>
+    <t>这是英文:[%s]%s帮你抵御了一次进攻</t>
+  </si>
+  <si>
+    <t>[%s]%s帮你抵御了一次进攻。</t>
+  </si>
+  <si>
+    <t>这是英文:[%s]%s帮你抵御了一次进攻。</t>
+  </si>
+  <si>
+    <t>你的联盟职位被调整</t>
+  </si>
+  <si>
+    <t>这是英文:你的联盟职位被调整</t>
+  </si>
+  <si>
+    <t>你的职位由%s调整为%s。</t>
+  </si>
+  <si>
+    <t>这是英文:你的职位由%s调整为%s。</t>
+  </si>
+  <si>
+    <t>你已被%s联盟踢出</t>
+  </si>
+  <si>
+    <t>这是英文:你已被%s联盟踢出</t>
+  </si>
+  <si>
+    <t>你已被%s联盟踢出。</t>
+  </si>
+  <si>
+    <t>这是英文:你已被%s联盟踢出。</t>
+  </si>
+  <si>
+    <t>聯盟申請被拒絕</t>
+  </si>
+  <si>
+    <t>聯盟申請審核通過</t>
+  </si>
+  <si>
+    <t>加入聯盟邀請被拒絕</t>
+  </si>
+  <si>
+    <t>加入聯盟邀請被接受</t>
+  </si>
+  <si>
+    <t>我方聯盟剛剛發起了壹場聯盟會戰，請做好戰鬥準備！</t>
+  </si>
+  <si>
+    <t>%s 聯盟向我方發起了壹場聯盟會戰，請做好戰鬥準備！</t>
+  </si>
+  <si>
+    <t>忠誠值獎勵</t>
+  </si>
+  <si>
+    <t>聯盟戰最高擊殺獎勵</t>
+  </si>
+  <si>
+    <t>主人,你對 %s 聯盟的申請被無情的拒絕了。</t>
+  </si>
+  <si>
+    <t>恭喜,你對 %s 聯盟的申請審核通過了。</t>
+  </si>
+  <si>
+    <t>恭喜,%s 接受了你對他加入聯盟的邀請。</t>
+  </si>
+  <si>
+    <t>[%s]%s幫你抵禦了壹次突襲</t>
+  </si>
+  <si>
+    <t>[%s]%s幫你抵禦了壹次突襲。</t>
+  </si>
+  <si>
+    <t>[%s]%s幫你抵禦了壹次進攻</t>
+  </si>
+  <si>
+    <t>[%s]%s幫你抵禦了壹次進攻。</t>
+  </si>
+  <si>
+    <t>你的聯盟職位被調整</t>
+  </si>
+  <si>
+    <t>你的職位由%s調整為%s。</t>
+  </si>
+  <si>
+    <t>你已被%s聯盟踢出</t>
+  </si>
+  <si>
+    <t>你已被%s聯盟踢出。</t>
+  </si>
+  <si>
+    <t>%s聯盟向你發放了%d點忠誠值獎勵，請再接再厲！</t>
+  </si>
+  <si>
+    <t>主人,%s 拒绝了你对他加入联盟的邀请。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:主人,%s 拒绝了你对他加入联盟的邀请。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>主人,%s 拒絕了你對他加入聯盟的邀請。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_tw</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在联盟会战中奋勇杀敌，成为“头号杀手”,系统已奖励%d金龙币到你的账户中。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:你在联盟会战中奋勇杀敌，成为“头号杀手”,系统已奖励%d金龙币到你的账户中。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在聯盟會戰中奮勇殺敵，成為“頭號殺手”,系統已獎勵%d金龍幣到你的賬戶中。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +492,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="146">
+  <cellStyleXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -424,6 +507,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -576,7 +665,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="146">
+  <cellStyles count="152">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -652,6 +741,9 @@
     <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="150" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -720,6 +812,9 @@
     <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1171,13 +1266,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="1" width="20.6640625" style="1"/>
+    <col min="2" max="2" width="62.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="20" customHeight="1">
@@ -1190,6 +1289,9 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -1200,10 +1302,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="20" customHeight="1">
@@ -1211,10 +1316,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -1226,10 +1334,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
+      <c r="D4" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -1241,10 +1352,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -1256,10 +1370,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -1271,10 +1388,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1286,10 +1406,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -1301,10 +1424,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1316,10 +1442,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1331,10 +1460,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -1344,10 +1476,13 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -1359,10 +1494,13 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="20" customHeight="1">
@@ -1370,10 +1508,13 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="20" customHeight="1">
@@ -1381,10 +1522,13 @@
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="20" customHeight="1">
@@ -1392,87 +1536,111 @@
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
+        <v>60</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1">
+        <v>62</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
+        <v>64</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1">
+        <v>33</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>63</v>
+        <v>90</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/datas/server/Localizations.xlsx
+++ b/datas/server/Localizations.xlsx
@@ -160,22 +160,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>我方联盟刚刚发起了一场联盟会战，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:我方联盟刚刚发起了一场联盟会战，，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>%s 联盟向我方发起了一场联盟会战，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:%s 联盟对我方发起了一场联盟会战，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>忠诚值奖励</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -262,12 +246,6 @@
     <t>加入聯盟邀請被接受</t>
   </si>
   <si>
-    <t>我方聯盟剛剛發起了壹場聯盟會戰，請做好戰鬥準備！</t>
-  </si>
-  <si>
-    <t>%s 聯盟向我方發起了壹場聯盟會戰，請做好戰鬥準備！</t>
-  </si>
-  <si>
     <t>忠誠值獎勵</t>
   </si>
   <si>
@@ -335,6 +313,30 @@
   </si>
   <si>
     <t>你在聯盟會戰中奮勇殺敵，成為“頭號殺手”,系統已獎勵%d金龍幣到你的賬戶中。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s联盟向我方发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方联盟发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方聯盟剛剛發起了壹場聯盟會戰，戰鬥將於20分鐘後開始，請做好戰鬥準備！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:我方联盟刚刚发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:%s联盟对我方发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s聯盟向我方發起了壹場聯盟會戰，戰鬥將於20分鐘後開始，請做好戰鬥準備！</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1267,7 +1269,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1290,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1308,7 +1310,7 @@
         <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="20" customHeight="1">
@@ -1316,13 +1318,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -1340,7 +1342,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -1352,13 +1354,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -1376,7 +1378,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -1388,13 +1390,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1412,7 +1414,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -1424,13 +1426,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1442,13 +1444,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1460,13 +1462,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -1476,13 +1478,13 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -1494,13 +1496,13 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="20" customHeight="1">
@@ -1508,13 +1510,13 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="20" customHeight="1">
@@ -1522,13 +1524,13 @@
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="20" customHeight="1">
@@ -1536,13 +1538,13 @@
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -1550,13 +1552,13 @@
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -1564,13 +1566,13 @@
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -1578,13 +1580,13 @@
         <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -1592,13 +1594,13 @@
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -1606,13 +1608,13 @@
         <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -1626,7 +1628,7 @@
         <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -1634,13 +1636,13 @@
         <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/datas/server/Localizations.xlsx
+++ b/datas/server/Localizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="120" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="1220" yWindow="120" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="alliance" sheetId="22" r:id="rId1"/>
@@ -261,18 +261,6 @@
     <t>恭喜,%s 接受了你對他加入聯盟的邀請。</t>
   </si>
   <si>
-    <t>[%s]%s幫你抵禦了壹次突襲</t>
-  </si>
-  <si>
-    <t>[%s]%s幫你抵禦了壹次突襲。</t>
-  </si>
-  <si>
-    <t>[%s]%s幫你抵禦了壹次進攻</t>
-  </si>
-  <si>
-    <t>[%s]%s幫你抵禦了壹次進攻。</t>
-  </si>
-  <si>
     <t>你的聯盟職位被調整</t>
   </si>
   <si>
@@ -324,10 +312,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>我方聯盟剛剛發起了壹場聯盟會戰，戰鬥將於20分鐘後開始，請做好戰鬥準備！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>这是英文:我方联盟刚刚发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -336,8 +320,22 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>%s聯盟向我方發起了壹場聯盟會戰，戰鬥將於20分鐘後開始，請做好戰鬥準備！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>[%s]%s幫你抵禦了一次突襲。</t>
+  </si>
+  <si>
+    <t>[%s]%s幫你抵禦了一次進攻</t>
+  </si>
+  <si>
+    <t>[%s]%s幫你抵禦了一次進攻。</t>
+  </si>
+  <si>
+    <t>我方聯盟剛剛發起了一場聯盟會戰，戰鬥將於20分鐘後開始，請做好戰鬥準備！</t>
+  </si>
+  <si>
+    <t>%s聯盟向我方發起了一場聯盟會戰，戰鬥將於20分鐘後開始，請做好戰鬥準備！</t>
+  </si>
+  <si>
+    <t>[%s]%s幫你抵禦了一次突襲</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1267,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1292,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1390,13 +1388,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1450,7 +1448,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1468,7 +1466,7 @@
         <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -1484,7 +1482,7 @@
         <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -1502,7 +1500,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="20" customHeight="1">
@@ -1510,13 +1508,13 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="20" customHeight="1">
@@ -1524,13 +1522,13 @@
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="20" customHeight="1">
@@ -1544,7 +1542,7 @@
         <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -1558,7 +1556,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -1572,7 +1570,7 @@
         <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -1586,7 +1584,7 @@
         <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -1614,7 +1612,7 @@
         <v>29</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -1636,13 +1634,13 @@
         <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/datas/server/Localizations.xlsx
+++ b/datas/server/Localizations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="120" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="5880" yWindow="1820" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="alliance" sheetId="22" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -79,13 +79,6 @@
     <t>HelpDefenceAttackContent</t>
   </si>
   <si>
-    <t>AttackAllianceMessage</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllianceBeAttackedMessage</t>
-  </si>
-  <si>
     <t>AllianceTitleBeModifyedTitle</t>
   </si>
   <si>
@@ -296,46 +289,104 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>你在聯盟會戰中奮勇殺敵，成為“頭號殺手”,系統已獎勵%d金龍幣到你的賬戶中。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s联盟向我方发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方联盟发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:我方联盟刚刚发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s幫你抵禦了一次突襲。</t>
+  </si>
+  <si>
+    <t>[%s]%s幫你抵禦了一次進攻</t>
+  </si>
+  <si>
+    <t>[%s]%s幫你抵禦了一次進攻。</t>
+  </si>
+  <si>
+    <t>我方聯盟剛剛發起了一場聯盟會戰，戰鬥將於20分鐘後開始，請做好戰鬥準備！</t>
+  </si>
+  <si>
+    <t>%s聯盟向我方發起了一場聯盟會戰，戰鬥將於20分鐘後開始，請做好戰鬥準備！</t>
+  </si>
+  <si>
+    <t>[%s]%s幫你抵禦了一次突襲</t>
+  </si>
+  <si>
+    <t>AttackAlliancePrepare</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceBeAttackedPrepare</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackAllianceStart</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceBeAttackedStart</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s联盟对我方联盟发起的联盟战已经开始,战斗吧,骚年!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方联盟与%s联盟的联盟战已经开始,战斗吧,骚年!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:%s联盟对我方发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:我方联盟与%s联盟的联盟战已经开始,战斗吧,骚年!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:%s联盟对我方联盟发起的联盟战已经开始,战斗吧,骚年!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceShrineEventStart</t>
+  </si>
+  <si>
     <t>这是英文:你在联盟会战中奋勇杀敌，成为“头号杀手”,系统已奖励%d金龙币到你的账户中。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>你在聯盟會戰中奮勇殺敵，成為“頭號殺手”,系統已獎勵%d金龍幣到你的賬戶中。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>%s联盟向我方发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方联盟发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:我方联盟刚刚发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:%s联盟对我方发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>[%s]%s幫你抵禦了一次突襲。</t>
-  </si>
-  <si>
-    <t>[%s]%s幫你抵禦了一次進攻</t>
-  </si>
-  <si>
-    <t>[%s]%s幫你抵禦了一次進攻。</t>
-  </si>
-  <si>
-    <t>我方聯盟剛剛發起了一場聯盟會戰，戰鬥將於20分鐘後開始，請做好戰鬥準備！</t>
-  </si>
-  <si>
-    <t>%s聯盟向我方發起了一場聯盟會戰，戰鬥將於20分鐘後開始，請做好戰鬥準備！</t>
-  </si>
-  <si>
-    <t>[%s]%s幫你抵禦了一次突襲</t>
+    <t>CityBeAttacked</t>
+  </si>
+  <si>
+    <t>主淫,您的城市即将被攻打,请注意啦</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:主淫,您的城市即将被攻打,请注意啦</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方联盟激活了一场圣地战,战斗将于20分钟后开始,请做好战斗准备</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:我方联盟激活了圣地战,战斗将于20分钟后开始,请做好战斗准备</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方联盟激活了圣地战,战斗将于20分钟后开始,请做好战斗准备</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -492,7 +543,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="152">
+  <cellStyleXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -507,6 +558,50 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -665,7 +760,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="152">
+  <cellStyles count="196">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -744,6 +839,28 @@
     <cellStyle name="超链接" xfId="146" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="148" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="194" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -815,6 +932,28 @@
     <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1264,15 +1403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1"/>
+    <col min="1" max="1" width="27.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="62.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="70.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="76.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -1290,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1302,13 +1441,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="20" customHeight="1">
@@ -1316,13 +1455,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -1334,13 +1473,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -1352,13 +1491,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -1370,13 +1509,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -1388,13 +1527,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1406,13 +1545,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -1424,13 +1563,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1442,13 +1581,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1460,13 +1599,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -1476,13 +1615,13 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -1494,153 +1633,209 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>81</v>
+      <c r="C24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/datas/server/Localizations.xlsx
+++ b/datas/server/Localizations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1820" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="1320" yWindow="260" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="alliance" sheetId="22" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -293,18 +293,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>%s联盟向我方发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方联盟发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:我方联盟刚刚发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>[%s]%s幫你抵禦了一次突襲。</t>
   </si>
   <si>
@@ -314,12 +302,6 @@
     <t>[%s]%s幫你抵禦了一次進攻。</t>
   </si>
   <si>
-    <t>我方聯盟剛剛發起了一場聯盟會戰，戰鬥將於20分鐘後開始，請做好戰鬥準備！</t>
-  </si>
-  <si>
-    <t>%s聯盟向我方發起了一場聯盟會戰，戰鬥將於20分鐘後開始，請做好戰鬥準備！</t>
-  </si>
-  <si>
     <t>[%s]%s幫你抵禦了一次突襲</t>
   </si>
   <si>
@@ -339,26 +321,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>%s联盟对我方联盟发起的联盟战已经开始,战斗吧,骚年!</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方联盟与%s联盟的联盟战已经开始,战斗吧,骚年!</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:%s联盟对我方发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:我方联盟与%s联盟的联盟战已经开始,战斗吧,骚年!</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:%s联盟对我方联盟发起的联盟战已经开始,战斗吧,骚年!</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>AllianceShrineEventStart</t>
   </si>
   <si>
@@ -369,23 +331,64 @@
     <t>CityBeAttacked</t>
   </si>
   <si>
-    <t>主淫,您的城市即将被攻打,请注意啦</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:主淫,您的城市即将被攻打,请注意啦</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方联盟激活了一场圣地战,战斗将于20分钟后开始,请做好战斗准备</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:我方联盟激活了圣地战,战斗将于20分钟后开始,请做好战斗准备</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方联盟激活了圣地战,战斗将于20分钟后开始,请做好战斗准备</t>
+    <t>我方联盟发起了一场联盟会战，战斗将于15分钟后开始，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s联盟向我方发起了一场联盟会战，战斗将于15分钟后开始，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:我方联盟刚刚发起了一场联盟会战，战斗将于15分钟后开始，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:%s联盟对我方发起了一场联盟会战，战斗将于15分钟后开始，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方聯盟剛剛發起了一場聯盟會戰，戰鬥將於15分鐘後開始，請做好戰鬥準備！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s聯盟向我方發起了一場聯盟會戰，戰鬥將於15分鐘後開始，請做好戰鬥準備！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>与%s联盟的战斗已经开始！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:与%s联盟的战斗已经开始！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:与%s联盟的战斗已经开始！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>與%s聯盟的戰鬥已經開始！</t>
+  </si>
+  <si>
+    <t>这是英文:主人，你的城市即将被攻打！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>主人，你的城市即將被攻打！</t>
+  </si>
+  <si>
+    <t>我方联盟激活了一场圣地战,并将于20分钟后结束,请做好出兵准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:我方联盟激活了一场圣地战,并将于20分钟后结束,请做好出兵准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方聯盟激活了一場聖地戰,並將於20分鐘後結束,請做好出兵準備！</t>
+  </si>
+  <si>
+    <t>主人，你的城市即将被攻打！</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +546,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="196">
+  <cellStyleXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -558,6 +561,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -760,7 +773,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="196">
+  <cellStyles count="206">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -861,6 +874,11 @@
     <cellStyle name="超链接" xfId="190" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="192" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="204" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -954,6 +972,11 @@
     <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1405,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1587,7 +1610,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1605,7 +1628,7 @@
         <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -1621,7 +1644,7 @@
         <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -1639,63 +1662,63 @@
         <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -1804,7 +1827,7 @@
         <v>77</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>78</v>
@@ -1812,7 +1835,7 @@
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>102</v>
@@ -1826,16 +1849,16 @@
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/datas/server/Localizations.xlsx
+++ b/datas/server/Localizations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="260" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="4040" yWindow="1100" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="alliance" sheetId="22" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="120">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -370,25 +370,78 @@
     <t>與%s聯盟的戰鬥已經開始！</t>
   </si>
   <si>
+    <t>主人，你的城市即將被攻打！</t>
+  </si>
+  <si>
+    <t>我方联盟激活了一场圣地战,并将于20分钟后结束,请做好出兵准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:我方联盟激活了一场圣地战,并将于20分钟后结束,请做好出兵准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方聯盟激活了一場聖地戰,並將於20分鐘後結束,請做好出兵準備！</t>
+  </si>
+  <si>
+    <t>主人，你的城市即将被攻打！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>这是英文:主人，你的城市即将被攻打！</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>主人，你的城市即將被攻打！</t>
-  </si>
-  <si>
-    <t>我方联盟激活了一场圣地战,并将于20分钟后结束,请做好出兵准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:我方联盟激活了一场圣地战,并将于20分钟后结束,请做好出兵准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方聯盟激活了一場聖地戰,並將於20分鐘後結束,請做好出兵準備！</t>
-  </si>
-  <si>
-    <t>主人，你的城市即将被攻打！</t>
+    <t>AllianceFightSuccess</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceFightFailed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的联盟在联盟会战中战胜了[%s]%s联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的联盟在联盟会战中落败于[%s]%s联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:你的联盟在联盟会战中战胜了[%s]%s联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:你的联盟在联盟会战中落败于[%s]%s联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceMovedContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceMovedTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceFightTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的联盟领地已被迁移</t>
+  </si>
+  <si>
+    <t>联盟会战结果</t>
+  </si>
+  <si>
+    <t>你所在的联盟领地已由第%d圈迁移至第%d圈</t>
+  </si>
+  <si>
+    <t>你所在的联盟领地已由第%d圈迁移至第%d圈</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:你所在的联盟领地已由第%d圈迁移至第%d圈</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +599,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="206">
+  <cellStyleXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -561,6 +614,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -773,7 +858,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="206">
+  <cellStyles count="238">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -879,6 +964,22 @@
     <cellStyle name="超链接" xfId="200" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="202" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="236" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -977,6 +1078,22 @@
     <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1426,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1838,13 +1955,13 @@
         <v>87</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -1852,13 +1969,83 @@
         <v>89</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>101</v>
+    </row>
+    <row r="28" spans="1:4" ht="20" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="20" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="20" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="20" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="20" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/datas/server/Localizations.xlsx
+++ b/datas/server/Localizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="1100" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="6980" yWindow="2440" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="alliance" sheetId="22" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="134">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -442,6 +442,62 @@
   </si>
   <si>
     <t>这是英文:你所在的联盟领地已由第%d圈迁移至第%d圈</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行军失败</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackMissTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackMissContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackProtectedTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackProtectedContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d)已不存在（迁移或消失），部队已原路返回</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectFailedTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectFailedContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d)正处于保护状态，无法攻打，部队已原路返回</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你前往采集的[%s]%s(%d,%d)已被盟友占领，部队已原路返回</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelpDefenceFailedTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelpDefenceFailedContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d)协防数量已达上限，无法继续协防，部队已原路返回</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d)已被盟友占领，部队已原路返回</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +655,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="238">
+  <cellStyleXfs count="312">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -614,6 +670,80 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -858,7 +988,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="238">
+  <cellStyles count="312">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -980,6 +1110,43 @@
     <cellStyle name="超链接" xfId="232" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="234" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="310" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1094,6 +1261,43 @@
     <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1543,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2048,6 +2252,118 @@
         <v>109</v>
       </c>
     </row>
+    <row r="33" spans="1:4" ht="20" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="20" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="20" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="20" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="20" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="20" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="20" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="20" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datas/server/Localizations.xlsx
+++ b/datas/server/Localizations.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="133">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -478,10 +478,6 @@
   </si>
   <si>
     <t>[%s]%s(%d,%d)正处于保护状态，无法攻打，部队已原路返回</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>你前往采集的[%s]%s(%d,%d)已被盟友占领，部队已原路返回</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -655,7 +651,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="312">
+  <cellStyleXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -670,6 +666,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -988,7 +986,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="312">
+  <cellStyles count="314">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1147,6 +1145,7 @@
     <cellStyle name="超链接" xfId="306" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="308" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="312" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1298,6 +1297,7 @@
     <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1749,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2327,18 +2327,18 @@
         <v>127</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>120</v>
@@ -2352,16 +2352,16 @@
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/datas/server/Localizations.xlsx
+++ b/datas/server/Localizations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6980" yWindow="2440" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="7660" yWindow="2120" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="alliance" sheetId="22" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="142">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -370,130 +370,162 @@
     <t>與%s聯盟的戰鬥已經開始！</t>
   </si>
   <si>
+    <t>我方联盟激活了一场圣地战,并将于20分钟后结束,请做好出兵准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:我方联盟激活了一场圣地战,并将于20分钟后结束,请做好出兵准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方聯盟激活了一場聖地戰,並將於20分鐘後結束,請做好出兵準備！</t>
+  </si>
+  <si>
+    <t>主人，你的城市即将被攻打！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:主人，你的城市即将被攻打！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceFightSuccess</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceFightFailed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的联盟在联盟会战中战胜了[%s]%s联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的联盟在联盟会战中落败于[%s]%s联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:你的联盟在联盟会战中战胜了[%s]%s联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:你的联盟在联盟会战中落败于[%s]%s联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceMovedContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceMovedTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceFightTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的联盟领地已被迁移</t>
+  </si>
+  <si>
+    <t>联盟会战结果</t>
+  </si>
+  <si>
+    <t>你所在的联盟领地已由第%d圈迁移至第%d圈</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:你所在的联盟领地已由第%d圈迁移至第%d圈</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行军失败</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackMissTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackMissContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackProtectedTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackProtectedContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d)已不存在（迁移或消失），部队已原路返回</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectFailedTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectFailedContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d)正处于保护状态，无法攻打，部队已原路返回</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelpDefenceFailedTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelpDefenceFailedContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d)协防数量已达上限，无法继续协防，部队已原路返回</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d)已被盟友占领，部队已原路返回</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聯盟會戰結果</t>
+  </si>
+  <si>
+    <t>行軍失敗</t>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d)已不存在（遷移或消失），部隊已原路返回</t>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d)正處於保護狀態，無法攻打，部隊已原路返回</t>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d)已被盟友占領，部隊已原路返回</t>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d)協防數量已達上限，無法繼續協防，部隊已原路返回</t>
+  </si>
+  <si>
     <t>主人，你的城市即將被攻打！</t>
-  </si>
-  <si>
-    <t>我方联盟激活了一场圣地战,并将于20分钟后结束,请做好出兵准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:我方联盟激活了一场圣地战,并将于20分钟后结束,请做好出兵准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方聯盟激活了一場聖地戰,並將於20分鐘後結束,請做好出兵準備！</t>
-  </si>
-  <si>
-    <t>主人，你的城市即将被攻打！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:主人，你的城市即将被攻打！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllianceFightSuccess</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllianceFightFailed</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的联盟在联盟会战中战胜了[%s]%s联盟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的联盟在联盟会战中落败于[%s]%s联盟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:你的联盟在联盟会战中战胜了[%s]%s联盟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:你的联盟在联盟会战中落败于[%s]%s联盟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllianceMovedContent</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllianceMovedTitle</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllianceFightTitle</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的联盟领地已被迁移</t>
-  </si>
-  <si>
-    <t>联盟会战结果</t>
-  </si>
-  <si>
-    <t>你所在的联盟领地已由第%d圈迁移至第%d圈</t>
-  </si>
-  <si>
-    <t>你所在的联盟领地已由第%d圈迁移至第%d圈</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:你所在的联盟领地已由第%d圈迁移至第%d圈</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>行军失败</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackMissTitle</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackMissContent</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackProtectedTitle</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackProtectedContent</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>[%s]%s(%d,%d)已不存在（迁移或消失），部队已原路返回</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CollectFailedTitle</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CollectFailedContent</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>[%s]%s(%d,%d)正处于保护状态，无法攻打，部队已原路返回</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>HelpDefenceFailedTitle</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>HelpDefenceFailedContent</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>[%s]%s(%d,%d)协防数量已达上限，无法继续协防，部队已原路返回</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>[%s]%s(%d,%d)已被盟友占领，部队已原路返回</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的聯盟領地已被遷移</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你所在的聯盟領地已由第%d圈遷移至第%d圈</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的聯盟在聯盟會戰中戰勝了[%s]%s聯盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的聯盟在聯盟會戰中落敗於[%s]%s聯盟</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -651,7 +683,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="314">
+  <cellStyleXfs count="320">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -666,6 +698,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -986,7 +1024,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="314">
+  <cellStyles count="320">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1146,6 +1184,9 @@
     <cellStyle name="超链接" xfId="308" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="310" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="318" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1298,6 +1339,9 @@
     <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1749,8 +1793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2159,13 +2203,13 @@
         <v>87</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -2173,195 +2217,195 @@
         <v>89</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/datas/server/Localizations.xlsx
+++ b/datas/server/Localizations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7660" yWindow="2120" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="4020" yWindow="1240" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="alliance" sheetId="22" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="155">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -97,22 +97,6 @@
     <t>加入联盟邀请被接受</t>
   </si>
   <si>
-    <t>这是英文:联盟申请审核通过</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:加入联盟邀请被拒绝</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:加入联盟邀请被接受</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:忠诚值奖励</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>giveLoyaltyToAllianceMemberTitle</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -121,10 +105,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>这是英文:%s联盟向你发放了%d点忠诚值奖励，请再接再厉！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>AllianceFightKillFirstRewardContent</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -137,10 +117,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>这是英文:联盟战最高击杀奖励</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>联盟申请被拒绝</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -149,10 +125,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>这是英文:联盟申请被拒绝</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>忠诚值奖励</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -164,69 +136,30 @@
     <t>主人,你对 %s 联盟的申请被无情的拒绝了。</t>
   </si>
   <si>
-    <t>这是英文:主人,你对 %s 联盟的申请被无情的拒绝了。</t>
-  </si>
-  <si>
     <t>恭喜,你对 %s 联盟的申请审核通过了。</t>
   </si>
   <si>
-    <t>这是英文:恭喜,你对 %s 联盟的申请审核通过了。</t>
-  </si>
-  <si>
     <t>恭喜,%s 接受了你对他加入联盟的邀请。</t>
   </si>
   <si>
-    <t>这是英文:恭喜,%s 接受了你对他加入联盟的邀请。</t>
-  </si>
-  <si>
-    <t>[%s]%s帮你抵御了一次突袭</t>
-  </si>
-  <si>
-    <t>这是英文[%s]%s帮你抵御了一次突袭</t>
-  </si>
-  <si>
-    <t>[%s]%s帮你抵御了一次突袭。</t>
-  </si>
-  <si>
-    <t>这是英文:[%s]%s帮你抵御了一次突袭。</t>
-  </si>
-  <si>
     <t>[%s]%s帮你抵御了一次进攻</t>
   </si>
   <si>
-    <t>这是英文:[%s]%s帮你抵御了一次进攻</t>
-  </si>
-  <si>
     <t>[%s]%s帮你抵御了一次进攻。</t>
   </si>
   <si>
-    <t>这是英文:[%s]%s帮你抵御了一次进攻。</t>
-  </si>
-  <si>
     <t>你的联盟职位被调整</t>
   </si>
   <si>
-    <t>这是英文:你的联盟职位被调整</t>
-  </si>
-  <si>
     <t>你的职位由%s调整为%s。</t>
   </si>
   <si>
-    <t>这是英文:你的职位由%s调整为%s。</t>
-  </si>
-  <si>
     <t>你已被%s联盟踢出</t>
   </si>
   <si>
-    <t>这是英文:你已被%s联盟踢出</t>
-  </si>
-  <si>
     <t>你已被%s联盟踢出。</t>
   </si>
   <si>
-    <t>这是英文:你已被%s联盟踢出。</t>
-  </si>
-  <si>
     <t>聯盟申請被拒絕</t>
   </si>
   <si>
@@ -273,10 +206,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>这是英文:主人,%s 拒绝了你对他加入联盟的邀请。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>主人,%s 拒絕了你對他加入聯盟的邀請。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -324,10 +253,6 @@
     <t>AllianceShrineEventStart</t>
   </si>
   <si>
-    <t>这是英文:你在联盟会战中奋勇杀敌，成为“头号杀手”,系统已奖励%d金龙币到你的账户中。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>CityBeAttacked</t>
   </si>
   <si>
@@ -339,14 +264,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>这是英文:我方联盟刚刚发起了一场联盟会战，战斗将于15分钟后开始，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:%s联盟对我方发起了一场联盟会战，战斗将于15分钟后开始，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>我方聯盟剛剛發起了一場聯盟會戰，戰鬥將於15分鐘後開始，請做好戰鬥準備！</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -359,14 +276,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>这是英文:与%s联盟的战斗已经开始！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:与%s联盟的战斗已经开始！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>與%s聯盟的戰鬥已經開始！</t>
   </si>
   <si>
@@ -374,10 +283,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>这是英文:我方联盟激活了一场圣地战,并将于20分钟后结束,请做好出兵准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>我方聯盟激活了一場聖地戰,並將於20分鐘後結束,請做好出兵準備！</t>
   </si>
   <si>
@@ -385,10 +290,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>这是英文:主人，你的城市即将被攻打！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>AllianceFightSuccess</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -405,14 +306,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>这是英文:你的联盟在联盟会战中战胜了[%s]%s联盟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:你的联盟在联盟会战中落败于[%s]%s联盟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>AllianceMovedContent</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -435,10 +328,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>这是英文:你所在的联盟领地已由第%d圈迁移至第%d圈</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>行军失败</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -503,30 +392,202 @@
     <t>[%s]%s(%d,%d)正處於保護狀態，無法攻打，部隊已原路返回</t>
   </si>
   <si>
+    <t>[%s]%s(%d,%d)協防數量已達上限，無法繼續協防，部隊已原路返回</t>
+  </si>
+  <si>
+    <t>主人，你的城市即將被攻打！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的聯盟領地已被遷移</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你所在的聯盟領地已由第%d圈遷移至第%d圈</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的聯盟在聯盟會戰中戰勝了[%s]%s聯盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的聯盟在聯盟會戰中落敗於[%s]%s聯盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>[%s]%s(%d,%d)已被盟友占領，部隊已原路返回</t>
-  </si>
-  <si>
-    <t>[%s]%s(%d,%d)協防數量已達上限，無法繼續協防，部隊已原路返回</t>
-  </si>
-  <si>
-    <t>主人，你的城市即將被攻打！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的聯盟領地已被遷移</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>你所在的聯盟領地已由第%d圈遷移至第%d圈</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的聯盟在聯盟會戰中戰勝了[%s]%s聯盟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的聯盟在聯盟會戰中落敗於[%s]%s聯盟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your application was approved</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your invitation was rejected</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your invitation was accepted</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s帮你抵御了一次侦察</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s帮你抵御了一次侦察。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your Alliance has declared a war, and it will start in 15 minutes, prepare for the battle!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s has declared a war to your Alliance, and it will start in 15 minutes, prepare for the battle!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>The battle with %s has already begun!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your Alliance position has been adjusted</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>March failed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loyalty reward</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO.1 Killer prize</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your city is under attack!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your Alliance has been migrated</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alliance Battle result</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can't attack [%s]%s(%d,%d) who is under protection, your troop is returning now.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d) is already occupied by your ally, your troop is returning now.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can't help defending [%s]%s(%d,%d) who is full of assist, your troop is returning now.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your application was rejected</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>My lord, %s Alliance has rejected your application.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congratulations! %s Alliance has approved your application.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>My lord, %s has rejected your invitation.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congratulations! %s has accepted your invitation.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s Alliance granted you %s loyalty points for your heroic!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>You received %s Dragon Coins as the NO.1 Killer prize in the last Alliance Battle.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your Alliance territory has been migrated from round%s to round%s.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s helped you to defend a enemy scout</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s helped you to defend a enemy scout.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s helped you to defend a enemy attack</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s helped you to defend a enemy attack.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your Alliance position has been adjusted to %s.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>You have been kicked out</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d) does not existed(migrated or disappeared), your troop is returning now.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s has defeated your Alliance in the last Alliance Battle.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your Alliance has defeated [%s]%s in the last Alliance Battle.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>You have been kicked out by %s Alliance.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your Alliance has activated a Shrine event, and it will end in 20 minutes, go for the war!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>StrikeVillageMissTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>StrikeVillageMissContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行军失败</t>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d)中的敌人已消失（撤军或退出联盟），部队已原路返回</t>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d)中的敵人已消失（撤軍或退出聯盟），部隊已原路返回</t>
+  </si>
+  <si>
+    <t>March failed</t>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d) does not existed(migrated or disappeared), your troop is returning now.</t>
   </si>
 </sst>
 </file>
@@ -683,7 +744,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="320">
+  <cellStyleXfs count="332">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -698,6 +759,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1024,7 +1097,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="320">
+  <cellStyles count="332">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1187,6 +1260,12 @@
     <cellStyle name="超链接" xfId="314" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="316" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="330" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1342,6 +1421,12 @@
     <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1791,10 +1876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1817,7 +1902,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1829,13 +1914,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="20" customHeight="1">
@@ -1843,13 +1928,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -1861,13 +1946,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -1879,13 +1964,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -1900,10 +1985,10 @@
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -1915,13 +2000,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1936,10 +2021,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -1951,13 +2036,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1969,13 +2054,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1987,13 +2072,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -2003,13 +2088,13 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -2021,69 +2106,69 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -2091,13 +2176,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -2105,13 +2190,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -2119,13 +2204,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -2133,279 +2218,307 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>136</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="20" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="20" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/datas/server/Localizations.xlsx
+++ b/datas/server/Localizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="1240" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="5220" yWindow="1520" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="alliance" sheetId="22" r:id="rId1"/>
@@ -587,7 +587,7 @@
     <t>March failed</t>
   </si>
   <si>
-    <t>[%s]%s(%d,%d) does not existed(migrated or disappeared), your troop is returning now.</t>
+    <t>The enemy in [%s]%s(%d,%d) does not existed(retreated or quitted the Alliance), your troop is returning now.</t>
   </si>
 </sst>
 </file>
@@ -1879,7 +1879,7 @@
   <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/datas/server/Localizations.xlsx
+++ b/datas/server/Localizations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="1520" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="4980" yWindow="1300" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="alliance" sheetId="22" r:id="rId1"/>
@@ -511,18 +511,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>%s Alliance granted you %s loyalty points for your heroic!</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>You received %s Dragon Coins as the NO.1 Killer prize in the last Alliance Battle.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your Alliance territory has been migrated from round%s to round%s.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>[%s]%s helped you to defend a enemy scout</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -539,10 +527,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Your Alliance position has been adjusted to %s.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>You have been kicked out</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -588,6 +572,22 @@
   </si>
   <si>
     <t>The enemy in [%s]%s(%d,%d) does not existed(retreated or quitted the Alliance), your troop is returning now.</t>
+  </si>
+  <si>
+    <t>Your Alliance territory has been migrated from round%d to round%d.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s Alliance granted you %d loyalty points for your heroic!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your Alliance position has been adjusted from %s to %s.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>You received %d Dragon Coins as the NO.1 Killer prize in the last Alliance Battle.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1878,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2057,7 +2057,7 @@
         <v>114</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>61</v>
@@ -2075,7 +2075,7 @@
         <v>115</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>58</v>
@@ -2091,7 +2091,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>59</v>
@@ -2109,7 +2109,7 @@
         <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>60</v>
@@ -2193,7 +2193,7 @@
         <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -2207,7 +2207,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>50</v>
@@ -2221,7 +2221,7 @@
         <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>51</v>
@@ -2249,7 +2249,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>52</v>
@@ -2277,7 +2277,7 @@
         <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>57</v>
@@ -2291,7 +2291,7 @@
         <v>74</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>75</v>
@@ -2333,7 +2333,7 @@
         <v>86</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>107</v>
@@ -2361,7 +2361,7 @@
         <v>79</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>108</v>
@@ -2375,7 +2375,7 @@
         <v>80</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>109</v>
@@ -2403,7 +2403,7 @@
         <v>92</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>102</v>
@@ -2495,13 +2495,13 @@
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>101</v>
@@ -2509,16 +2509,16 @@
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/datas/server/Localizations.xlsx
+++ b/datas/server/Localizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="1300" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="1220" yWindow="260" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="alliance" sheetId="22" r:id="rId1"/>
@@ -214,14 +214,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>你在联盟会战中奋勇杀敌，成为“头号杀手”,系统已奖励%d金龙币到你的账户中。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>你在聯盟會戰中奮勇殺敵，成為“頭號殺手”,系統已獎勵%d金龍幣到你的賬戶中。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>[%s]%s幫你抵禦了一次突襲。</t>
   </si>
   <si>
@@ -586,8 +578,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>You received %d Dragon Coins as the NO.1 Killer prize in the last Alliance Battle.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>你在联盟会战中奋勇杀敌，成为“头号杀手”,请领取以下奖励。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please claim the Dragon Coins as the NO.1 Killer prize in the last Alliance Battle.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在聯盟會戰中奮勇殺敵，成為“頭號殺手”,請領取以下獎勵。</t>
   </si>
 </sst>
 </file>
@@ -744,7 +743,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="332">
+  <cellStyleXfs count="334">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -759,6 +758,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1097,7 +1098,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="332">
+  <cellStyles count="334">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1266,6 +1267,7 @@
     <cellStyle name="超链接" xfId="326" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="328" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="332" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1427,6 +1429,7 @@
     <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1878,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D12" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1917,7 +1920,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>39</v>
@@ -1931,7 +1934,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>45</v>
@@ -1949,7 +1952,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>40</v>
@@ -1967,7 +1970,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>46</v>
@@ -1985,7 +1988,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>41</v>
@@ -2003,7 +2006,7 @@
         <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>54</v>
@@ -2021,7 +2024,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>42</v>
@@ -2039,7 +2042,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>47</v>
@@ -2054,13 +2057,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -2072,13 +2075,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -2091,10 +2094,10 @@
         <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -2109,66 +2112,66 @@
         <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -2179,7 +2182,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>48</v>
@@ -2193,7 +2196,7 @@
         <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -2207,7 +2210,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>50</v>
@@ -2221,7 +2224,7 @@
         <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>51</v>
@@ -2235,7 +2238,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>43</v>
@@ -2249,7 +2252,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>52</v>
@@ -2263,7 +2266,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>44</v>
@@ -2274,251 +2277,251 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
